--- a/GWD Data/Well Protection.xlsx
+++ b/GWD Data/Well Protection.xlsx
@@ -294,8 +294,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
